--- a/r-for-data-analysis/data/education_tidy.xlsx
+++ b/r-for-data-analysis/data/education_tidy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerchner/projects/gwlibraries-workshops/r-for-data-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CB6B53-A5C9-D84E-B9FB-4C458017B9CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32500A7-1EB2-154F-B11D-2900DEBCA73F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="30860" windowHeight="22680"/>
   </bookViews>

--- a/r-for-data-analysis/data/education_tidy.xlsx
+++ b/r-for-data-analysis/data/education_tidy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerchner/projects/gwlibraries-workshops/r-for-data-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CD6FD03E-6098-0544-AC97-8EF1BE9C21CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85A6AB7C-9B8A-724A-8946-28B6C5935AF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="30860" windowHeight="22680"/>
   </bookViews>
